--- a/Excel/ResData.xlsx
+++ b/Excel/ResData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="119">
   <si>
     <t>int</t>
   </si>
@@ -201,6 +201,18 @@
   </si>
   <si>
     <t>ArtRes/UI/Panel/LevelPassPanel</t>
+  </si>
+  <si>
+    <t>TestPanel</t>
+  </si>
+  <si>
+    <t>测试面板</t>
+  </si>
+  <si>
+    <t>UI/Panel/TestPanel</t>
+  </si>
+  <si>
+    <t>ArtRes/UI/Panel/TestPanel</t>
   </si>
   <si>
     <t>卡牌1</t>
@@ -1519,10 +1531,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23148148148148" defaultRowHeight="14.4"/>
@@ -1825,356 +1837,356 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" customFormat="1" spans="1:8">
       <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
         <v>10001</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>1</v>
       </c>
-      <c r="C17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17">
-        <v>4</v>
-      </c>
-      <c r="E17" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" t="s">
-        <v>60</v>
-      </c>
-      <c r="G17" t="s">
-        <v>61</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="C18" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="18" customFormat="1" spans="1:8">
-      <c r="A18">
-        <v>10002</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18" t="s">
-        <v>63</v>
       </c>
       <c r="D18">
         <v>4</v>
       </c>
       <c r="E18" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" t="s">
         <v>64</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>65</v>
       </c>
-      <c r="G18" t="s">
-        <v>61</v>
-      </c>
       <c r="H18" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:8">
       <c r="A19">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D19">
         <v>4</v>
       </c>
       <c r="E19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G19" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H19" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="1:8">
       <c r="A20">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="B20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D20">
         <v>4</v>
       </c>
       <c r="E20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G20" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H20" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="1:8">
       <c r="A21">
-        <v>10005</v>
+        <v>10004</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D21">
         <v>4</v>
       </c>
       <c r="E21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G21" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H21" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:8">
       <c r="A22">
-        <v>10006</v>
+        <v>10005</v>
       </c>
       <c r="B22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D22">
         <v>4</v>
       </c>
       <c r="E22" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H22" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" customFormat="1" spans="1:8">
       <c r="A23">
-        <v>10007</v>
+        <v>10006</v>
       </c>
       <c r="B23">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D23">
         <v>4</v>
       </c>
       <c r="E23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G23" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H23" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" customFormat="1" spans="1:8">
       <c r="A24">
-        <v>10008</v>
+        <v>10007</v>
       </c>
       <c r="B24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D24">
         <v>4</v>
       </c>
       <c r="E24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F24" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G24" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H24" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" customFormat="1" spans="1:8">
       <c r="A25">
-        <v>10009</v>
+        <v>10008</v>
       </c>
       <c r="B25">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D25">
         <v>4</v>
       </c>
       <c r="E25" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F25" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G25" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H25" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" customFormat="1" spans="1:8">
       <c r="A26">
-        <v>10010</v>
+        <v>10009</v>
       </c>
       <c r="B26">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D26">
         <v>4</v>
       </c>
       <c r="E26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F26" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G26" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H26" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" customFormat="1" spans="1:8">
       <c r="A27">
-        <v>10011</v>
+        <v>10010</v>
       </c>
       <c r="B27">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D27">
         <v>4</v>
       </c>
       <c r="E27" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F27" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G27" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H27" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:8">
       <c r="A28">
-        <v>10012</v>
+        <v>10011</v>
       </c>
       <c r="B28">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D28">
         <v>4</v>
       </c>
       <c r="E28" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F28" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G28" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H28" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="1:8">
       <c r="A29">
-        <v>10013</v>
-      </c>
-      <c r="B29" t="s">
-        <v>96</v>
+        <v>10012</v>
+      </c>
+      <c r="B29">
+        <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D29">
         <v>4</v>
       </c>
       <c r="E29" t="s">
+        <v>98</v>
+      </c>
+      <c r="F29" t="s">
+        <v>99</v>
+      </c>
+      <c r="G29" t="s">
+        <v>65</v>
+      </c>
+      <c r="H29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" spans="1:8">
+      <c r="A30">
+        <v>10013</v>
+      </c>
+      <c r="B30" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" t="s">
         <v>97</v>
       </c>
-      <c r="F29" t="s">
-        <v>98</v>
-      </c>
-      <c r="G29" t="s">
-        <v>61</v>
-      </c>
-      <c r="H29" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30">
-        <v>20001</v>
-      </c>
-      <c r="B30" t="s">
-        <v>99</v>
-      </c>
-      <c r="C30" t="s">
-        <v>100</v>
-      </c>
       <c r="D30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E30" t="s">
         <v>101</v>
@@ -2183,33 +2195,33 @@
         <v>102</v>
       </c>
       <c r="G30" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="H30" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31">
-        <v>30001</v>
+        <v>20001</v>
       </c>
       <c r="B31" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" t="s">
         <v>104</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
         <v>105</v>
       </c>
-      <c r="D31">
-        <v>10</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>106</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>107</v>
-      </c>
-      <c r="G31" t="s">
-        <v>108</v>
       </c>
       <c r="H31" t="s">
         <v>45</v>
@@ -2217,28 +2229,54 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32">
+        <v>30001</v>
+      </c>
+      <c r="B32" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" t="s">
+        <v>109</v>
+      </c>
+      <c r="D32">
+        <v>10</v>
+      </c>
+      <c r="E32" t="s">
+        <v>110</v>
+      </c>
+      <c r="F32" t="s">
+        <v>111</v>
+      </c>
+      <c r="G32" t="s">
+        <v>112</v>
+      </c>
+      <c r="H32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33">
         <v>40001</v>
       </c>
-      <c r="B32" t="s">
-        <v>109</v>
-      </c>
-      <c r="C32" t="s">
-        <v>110</v>
-      </c>
-      <c r="D32">
+      <c r="B33" t="s">
+        <v>113</v>
+      </c>
+      <c r="C33" t="s">
+        <v>114</v>
+      </c>
+      <c r="D33">
         <v>1</v>
       </c>
-      <c r="E32" t="s">
-        <v>111</v>
-      </c>
-      <c r="F32" t="s">
-        <v>112</v>
-      </c>
-      <c r="G32" t="s">
-        <v>113</v>
-      </c>
-      <c r="H32" t="s">
-        <v>114</v>
+      <c r="E33" t="s">
+        <v>115</v>
+      </c>
+      <c r="F33" t="s">
+        <v>116</v>
+      </c>
+      <c r="G33" t="s">
+        <v>117</v>
+      </c>
+      <c r="H33" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/ResData.xlsx
+++ b/Excel/ResData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="123">
   <si>
     <t>int</t>
   </si>
@@ -213,6 +213,18 @@
   </si>
   <si>
     <t>ArtRes/UI/Panel/TestPanel</t>
+  </si>
+  <si>
+    <t>PopupPanel</t>
+  </si>
+  <si>
+    <t>弹出面板</t>
+  </si>
+  <si>
+    <t>UI/Panel/PopupPanel</t>
+  </si>
+  <si>
+    <t>ArtRes/UI/Panel/PopupPanel</t>
   </si>
   <si>
     <t>卡牌1</t>
@@ -1531,10 +1543,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23148148148148" defaultRowHeight="14.4"/>
@@ -1863,356 +1875,356 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" customFormat="1" spans="1:8">
       <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
         <v>10001</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>1</v>
       </c>
-      <c r="C18" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18">
-        <v>4</v>
-      </c>
-      <c r="E18" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" t="s">
-        <v>64</v>
-      </c>
-      <c r="G18" t="s">
-        <v>65</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="C19" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="19" customFormat="1" spans="1:8">
-      <c r="A19">
-        <v>10002</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19" t="s">
-        <v>67</v>
       </c>
       <c r="D19">
         <v>4</v>
       </c>
       <c r="E19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" t="s">
         <v>68</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>69</v>
       </c>
-      <c r="G19" t="s">
-        <v>65</v>
-      </c>
       <c r="H19" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="1:8">
       <c r="A20">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D20">
         <v>4</v>
       </c>
       <c r="E20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G20" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H20" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="1:8">
       <c r="A21">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D21">
         <v>4</v>
       </c>
       <c r="E21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G21" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H21" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:8">
       <c r="A22">
-        <v>10005</v>
+        <v>10004</v>
       </c>
       <c r="B22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D22">
         <v>4</v>
       </c>
       <c r="E22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G22" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H22" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" customFormat="1" spans="1:8">
       <c r="A23">
-        <v>10006</v>
+        <v>10005</v>
       </c>
       <c r="B23">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D23">
         <v>4</v>
       </c>
       <c r="E23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G23" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H23" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" customFormat="1" spans="1:8">
       <c r="A24">
-        <v>10007</v>
+        <v>10006</v>
       </c>
       <c r="B24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D24">
         <v>4</v>
       </c>
       <c r="E24" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G24" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H24" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" customFormat="1" spans="1:8">
       <c r="A25">
-        <v>10008</v>
+        <v>10007</v>
       </c>
       <c r="B25">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D25">
         <v>4</v>
       </c>
       <c r="E25" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G25" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H25" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" customFormat="1" spans="1:8">
       <c r="A26">
-        <v>10009</v>
+        <v>10008</v>
       </c>
       <c r="B26">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D26">
         <v>4</v>
       </c>
       <c r="E26" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F26" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G26" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H26" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" customFormat="1" spans="1:8">
       <c r="A27">
-        <v>10010</v>
+        <v>10009</v>
       </c>
       <c r="B27">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D27">
         <v>4</v>
       </c>
       <c r="E27" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F27" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G27" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H27" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:8">
       <c r="A28">
-        <v>10011</v>
+        <v>10010</v>
       </c>
       <c r="B28">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D28">
         <v>4</v>
       </c>
       <c r="E28" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G28" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H28" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="1:8">
       <c r="A29">
-        <v>10012</v>
+        <v>10011</v>
       </c>
       <c r="B29">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D29">
         <v>4</v>
       </c>
       <c r="E29" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F29" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G29" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H29" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" customFormat="1" spans="1:8">
       <c r="A30">
-        <v>10013</v>
-      </c>
-      <c r="B30" t="s">
-        <v>100</v>
+        <v>10012</v>
+      </c>
+      <c r="B30">
+        <v>12</v>
       </c>
       <c r="C30" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D30">
         <v>4</v>
       </c>
       <c r="E30" t="s">
+        <v>102</v>
+      </c>
+      <c r="F30" t="s">
+        <v>103</v>
+      </c>
+      <c r="G30" t="s">
+        <v>69</v>
+      </c>
+      <c r="H30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" spans="1:8">
+      <c r="A31">
+        <v>10013</v>
+      </c>
+      <c r="B31" t="s">
+        <v>104</v>
+      </c>
+      <c r="C31" t="s">
         <v>101</v>
       </c>
-      <c r="F30" t="s">
-        <v>102</v>
-      </c>
-      <c r="G30" t="s">
-        <v>65</v>
-      </c>
-      <c r="H30" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31">
-        <v>20001</v>
-      </c>
-      <c r="B31" t="s">
-        <v>103</v>
-      </c>
-      <c r="C31" t="s">
-        <v>104</v>
-      </c>
       <c r="D31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E31" t="s">
         <v>105</v>
@@ -2221,33 +2233,33 @@
         <v>106</v>
       </c>
       <c r="G31" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="H31" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32">
-        <v>30001</v>
+        <v>20001</v>
       </c>
       <c r="B32" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" t="s">
         <v>108</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
         <v>109</v>
       </c>
-      <c r="D32">
-        <v>10</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>110</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>111</v>
-      </c>
-      <c r="G32" t="s">
-        <v>112</v>
       </c>
       <c r="H32" t="s">
         <v>45</v>
@@ -2255,28 +2267,54 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33">
+        <v>30001</v>
+      </c>
+      <c r="B33" t="s">
+        <v>112</v>
+      </c>
+      <c r="C33" t="s">
+        <v>113</v>
+      </c>
+      <c r="D33">
+        <v>10</v>
+      </c>
+      <c r="E33" t="s">
+        <v>114</v>
+      </c>
+      <c r="F33" t="s">
+        <v>115</v>
+      </c>
+      <c r="G33" t="s">
+        <v>116</v>
+      </c>
+      <c r="H33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34">
         <v>40001</v>
       </c>
-      <c r="B33" t="s">
-        <v>113</v>
-      </c>
-      <c r="C33" t="s">
-        <v>114</v>
-      </c>
-      <c r="D33">
+      <c r="B34" t="s">
+        <v>117</v>
+      </c>
+      <c r="C34" t="s">
+        <v>118</v>
+      </c>
+      <c r="D34">
         <v>1</v>
       </c>
-      <c r="E33" t="s">
-        <v>115</v>
-      </c>
-      <c r="F33" t="s">
-        <v>116</v>
-      </c>
-      <c r="G33" t="s">
-        <v>117</v>
-      </c>
-      <c r="H33" t="s">
-        <v>118</v>
+      <c r="E34" t="s">
+        <v>119</v>
+      </c>
+      <c r="F34" t="s">
+        <v>120</v>
+      </c>
+      <c r="G34" t="s">
+        <v>121</v>
+      </c>
+      <c r="H34" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/ResData.xlsx
+++ b/Excel/ResData.xlsx
@@ -1546,7 +1546,7 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23148148148148" defaultRowHeight="14.4"/>

--- a/Excel/ResData.xlsx
+++ b/Excel/ResData.xlsx
@@ -1543,10 +1543,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23148148148148" defaultRowHeight="14.4"/>
@@ -1745,336 +1745,180 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14" t="s">
-        <v>44</v>
-      </c>
-      <c r="H14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" customFormat="1" spans="1:11">
-      <c r="A15">
-        <v>3</v>
-      </c>
-      <c r="B15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" t="s">
-        <v>53</v>
-      </c>
-      <c r="G15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" customFormat="1" spans="1:11">
-      <c r="A16">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" t="s">
-        <v>57</v>
-      </c>
-      <c r="G16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" customFormat="1" spans="1:8">
-      <c r="A17">
-        <v>5</v>
-      </c>
-      <c r="B17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17" t="s">
-        <v>60</v>
-      </c>
-      <c r="F17" t="s">
-        <v>61</v>
-      </c>
-      <c r="G17" t="s">
-        <v>44</v>
-      </c>
-      <c r="H17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" customFormat="1" spans="1:8">
-      <c r="A18">
-        <v>6</v>
-      </c>
-      <c r="B18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18" t="s">
-        <v>65</v>
-      </c>
-      <c r="G18" t="s">
-        <v>44</v>
-      </c>
-      <c r="H18" t="s">
-        <v>45</v>
-      </c>
-    </row>
     <row r="19" spans="1:8">
       <c r="A19">
-        <v>10001</v>
-      </c>
-      <c r="B19">
         <v>1</v>
       </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="D19">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="F19" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G19" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="H19" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" customFormat="1" spans="1:8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20">
-        <v>10002</v>
-      </c>
-      <c r="B20">
         <v>2</v>
       </c>
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="D20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="F20" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="G20" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="H20" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="1:8">
       <c r="A21">
-        <v>10003</v>
-      </c>
-      <c r="B21">
         <v>3</v>
       </c>
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
       <c r="C21" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="D21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="F21" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="G21" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="H21" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:8">
       <c r="A22">
-        <v>10004</v>
-      </c>
-      <c r="B22">
         <v>4</v>
       </c>
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
       <c r="C22" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="D22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="F22" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="G22" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="H22" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" customFormat="1" spans="1:8">
       <c r="A23">
-        <v>10005</v>
-      </c>
-      <c r="B23">
         <v>5</v>
       </c>
+      <c r="B23" t="s">
+        <v>58</v>
+      </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="D23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="F23" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G23" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="H23" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" customFormat="1" spans="1:8">
       <c r="A24">
-        <v>10006</v>
-      </c>
-      <c r="B24">
         <v>6</v>
       </c>
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
       <c r="C24" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="D24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="F24" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="G24" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="H24" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" customFormat="1" spans="1:8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25">
-        <v>10007</v>
+        <v>10001</v>
       </c>
       <c r="B25">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="D25">
         <v>4</v>
       </c>
       <c r="E25" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="F25" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="G25" t="s">
         <v>69</v>
@@ -2085,22 +1929,22 @@
     </row>
     <row r="26" customFormat="1" spans="1:8">
       <c r="A26">
-        <v>10008</v>
+        <v>10002</v>
       </c>
       <c r="B26">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="D26">
         <v>4</v>
       </c>
       <c r="E26" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="F26" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="G26" t="s">
         <v>69</v>
@@ -2111,22 +1955,22 @@
     </row>
     <row r="27" customFormat="1" spans="1:8">
       <c r="A27">
-        <v>10009</v>
+        <v>10003</v>
       </c>
       <c r="B27">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="D27">
         <v>4</v>
       </c>
       <c r="E27" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="F27" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="G27" t="s">
         <v>69</v>
@@ -2137,22 +1981,22 @@
     </row>
     <row r="28" customFormat="1" spans="1:8">
       <c r="A28">
-        <v>10010</v>
+        <v>10004</v>
       </c>
       <c r="B28">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="D28">
         <v>4</v>
       </c>
       <c r="E28" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="F28" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="G28" t="s">
         <v>69</v>
@@ -2163,22 +2007,22 @@
     </row>
     <row r="29" customFormat="1" spans="1:8">
       <c r="A29">
-        <v>10011</v>
+        <v>10005</v>
       </c>
       <c r="B29">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="D29">
         <v>4</v>
       </c>
       <c r="E29" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="F29" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="G29" t="s">
         <v>69</v>
@@ -2189,22 +2033,22 @@
     </row>
     <row r="30" customFormat="1" spans="1:8">
       <c r="A30">
-        <v>10012</v>
+        <v>10006</v>
       </c>
       <c r="B30">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="D30">
         <v>4</v>
       </c>
       <c r="E30" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="F30" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="G30" t="s">
         <v>69</v>
@@ -2215,22 +2059,22 @@
     </row>
     <row r="31" customFormat="1" spans="1:8">
       <c r="A31">
-        <v>10013</v>
-      </c>
-      <c r="B31" t="s">
-        <v>104</v>
+        <v>10007</v>
+      </c>
+      <c r="B31">
+        <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="D31">
         <v>4</v>
       </c>
       <c r="E31" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="F31" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="G31" t="s">
         <v>69</v>
@@ -2239,81 +2083,237 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" customFormat="1" spans="1:8">
       <c r="A32">
+        <v>10008</v>
+      </c>
+      <c r="B32">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
+      </c>
+      <c r="E32" t="s">
+        <v>90</v>
+      </c>
+      <c r="F32" t="s">
+        <v>91</v>
+      </c>
+      <c r="G32" t="s">
+        <v>69</v>
+      </c>
+      <c r="H32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" spans="1:8">
+      <c r="A33">
+        <v>10009</v>
+      </c>
+      <c r="B33">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33">
+        <v>4</v>
+      </c>
+      <c r="E33" t="s">
+        <v>93</v>
+      </c>
+      <c r="F33" t="s">
+        <v>94</v>
+      </c>
+      <c r="G33" t="s">
+        <v>69</v>
+      </c>
+      <c r="H33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" spans="1:8">
+      <c r="A34">
+        <v>10010</v>
+      </c>
+      <c r="B34">
+        <v>10</v>
+      </c>
+      <c r="C34" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+      <c r="E34" t="s">
+        <v>96</v>
+      </c>
+      <c r="F34" t="s">
+        <v>97</v>
+      </c>
+      <c r="G34" t="s">
+        <v>69</v>
+      </c>
+      <c r="H34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" customFormat="1" spans="1:8">
+      <c r="A35">
+        <v>10011</v>
+      </c>
+      <c r="B35">
+        <v>11</v>
+      </c>
+      <c r="C35" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+      <c r="E35" t="s">
+        <v>99</v>
+      </c>
+      <c r="F35" t="s">
+        <v>100</v>
+      </c>
+      <c r="G35" t="s">
+        <v>69</v>
+      </c>
+      <c r="H35" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" customFormat="1" spans="1:8">
+      <c r="A36">
+        <v>10012</v>
+      </c>
+      <c r="B36">
+        <v>12</v>
+      </c>
+      <c r="C36" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36">
+        <v>4</v>
+      </c>
+      <c r="E36" t="s">
+        <v>102</v>
+      </c>
+      <c r="F36" t="s">
+        <v>103</v>
+      </c>
+      <c r="G36" t="s">
+        <v>69</v>
+      </c>
+      <c r="H36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" customFormat="1" spans="1:8">
+      <c r="A37">
+        <v>10013</v>
+      </c>
+      <c r="B37" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37">
+        <v>4</v>
+      </c>
+      <c r="E37" t="s">
+        <v>105</v>
+      </c>
+      <c r="F37" t="s">
+        <v>106</v>
+      </c>
+      <c r="G37" t="s">
+        <v>69</v>
+      </c>
+      <c r="H37" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38">
         <v>20001</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B38" t="s">
         <v>107</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C38" t="s">
         <v>108</v>
       </c>
-      <c r="D32">
+      <c r="D38">
         <v>0</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E38" t="s">
         <v>109</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F38" t="s">
         <v>110</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G38" t="s">
         <v>111</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H38" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
-      <c r="A33">
+    <row r="39" spans="1:8">
+      <c r="A39">
         <v>30001</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B39" t="s">
         <v>112</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C39" t="s">
         <v>113</v>
       </c>
-      <c r="D33">
+      <c r="D39">
         <v>10</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E39" t="s">
         <v>114</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F39" t="s">
         <v>115</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G39" t="s">
         <v>116</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H39" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
-      <c r="A34">
+    <row r="40" spans="1:8">
+      <c r="A40">
         <v>40001</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B40" t="s">
         <v>117</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C40" t="s">
         <v>118</v>
       </c>
-      <c r="D34">
+      <c r="D40">
         <v>1</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E40" t="s">
         <v>119</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F40" t="s">
         <v>120</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G40" t="s">
         <v>121</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H40" t="s">
         <v>122</v>
       </c>
     </row>

--- a/Excel/ResData.xlsx
+++ b/Excel/ResData.xlsx
@@ -203,16 +203,16 @@
     <t>ArtRes/UI/Panel/LevelPassPanel</t>
   </si>
   <si>
-    <t>TestPanel</t>
-  </si>
-  <si>
-    <t>测试面板</t>
-  </si>
-  <si>
-    <t>UI/Panel/TestPanel</t>
-  </si>
-  <si>
-    <t>ArtRes/UI/Panel/TestPanel</t>
+    <t>GrayPanel</t>
+  </si>
+  <si>
+    <t>灰度面板</t>
+  </si>
+  <si>
+    <t>UI/Panel/GrayPanel</t>
+  </si>
+  <si>
+    <t>ArtRes/UI/Panel/GrayPanel</t>
   </si>
   <si>
     <t>PopupPanel</t>
@@ -1545,8 +1545,8 @@
   <sheetPr/>
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23148148148148" defaultRowHeight="14.4"/>
